--- a/PlacementApi/data.xlsx
+++ b/PlacementApi/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT2"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -762,7 +762,7 @@
         <v>2024</v>
       </c>
       <c r="X2" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
         <v>100</v>
@@ -844,6 +844,190 @@
         </is>
       </c>
       <c r="AT2" t="inlineStr">
+        <is>
+          <t>Gen</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20bcs001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B.Tech</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Mnc</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Mathematics &amp; Computing</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>sirmaur</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'allowed_for': 'placement', 'sitting': True}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>himachal Pradesh</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>/media/student/2020/20bcs001_z7OE9HI.jpg</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Ramesh</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Verma</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>ac790259@gmail.com</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>9882234285</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>174303</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>2023-10-02</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="V3" t="n">
+        <v>4</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>33</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="AD3" t="n">
+        <v>87</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>school</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>cbse</t>
+        </is>
+      </c>
+      <c r="AH3" t="n">
+        <v>74</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/in/anmolchoudhary/</t>
+        </is>
+      </c>
+      <c r="AM3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>2023-10-11T19:34:44Z</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>2023-10-11T19:34:44Z</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>Gen</t>
         </is>
